--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T06:40:04+00:00</t>
+    <t>2025-09-25T07:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T07:29:00+00:00</t>
+    <t>2025-10-20T12:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Ressources utilisées lors de l’évènement.</t>
+    <t>Ressources utilisées lors de l’évènement (ex : chambre, matériel médical, véhicule).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -325,7 +325,7 @@
     <t>TDDUIRessourceType</t>
   </si>
   <si>
-    <t>Type de ressources utilisées dans le cadre de l’évènement (matériel, immobilier, véhicule).</t>
+    <t>Type de ressources utilisées dans le cadre de l’évènement.</t>
   </si>
   <si>
     <t>An Extension</t>
@@ -403,11 +403,7 @@
     <t>TDDUIMaterialDetail</t>
   </si>
   <si>
-    <t>Détail des ressources matérielles (ex: matériel médical, pédagogique)</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}MatDetailOnlyIfTypeOrg206:TDDUIMaterialDetail ne doit être utilisé que si TDDUIRessourceType vaut ORG-206 ou n'est pas renseigné. {(extension('TDDUIMaterialDetail').exists() = (extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-206'))}</t>
+    <t>Détail des ressources matérielles.</t>
   </si>
   <si>
     <t>Extension.extension:TDDUIMaterialDetail.id</t>
@@ -431,11 +427,7 @@
     <t>TDDUIFacilityResource</t>
   </si>
   <si>
-    <t>Détail des ressources immobilières (ex: bâtiment, salle, chambre)</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}FacilityOnlyIfTypeOrg207:TDDUIFacilityResource ne doit être utilisé que si TDDUIRessourceType vaut ORG-207 ou n'est pas renseigné. {(extension('TDDUIFacilityResource').exists() = (extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-207'))}</t>
+    <t>Détail des ressources immobilières.</t>
   </si>
   <si>
     <t>Extension.extension:TDDUIFacilityResource.id</t>
@@ -1854,7 +1846,7 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -1862,7 +1854,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>104</v>
@@ -1965,7 +1957,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>106</v>
@@ -2068,7 +2060,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>108</v>
@@ -2173,7 +2165,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>116</v>
@@ -2236,7 +2228,7 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -2274,13 +2266,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
@@ -2305,7 +2297,7 @@
         <v>91</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>102</v>
@@ -2371,7 +2363,7 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -2379,7 +2371,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>104</v>
@@ -2482,7 +2474,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>106</v>
@@ -2585,7 +2577,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>108</v>
@@ -2628,7 +2620,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>76</v>
@@ -2690,7 +2682,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>116</v>
@@ -2753,7 +2745,7 @@
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -2922,7 +2914,7 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>118</v>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:22:03+00:00</t>
+    <t>2025-10-21T07:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T07:57:56+00:00</t>
+    <t>2025-10-23T07:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
